--- a/isekailang.xlsx
+++ b/isekailang.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\atelier\isekailang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABEF881-3FDA-4E3F-908B-9ECD4E235890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB85BCC9-1D56-4482-BE2D-A0654F5C88F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4270" yWindow="420" windowWidth="20680" windowHeight="14030" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="2090" windowWidth="19200" windowHeight="12200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="声韵总表1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="编码备注" sheetId="3" r:id="rId3"/>
+    <sheet name="versions" sheetId="4" r:id="rId3"/>
+    <sheet name="专有名词" sheetId="5" r:id="rId4"/>
+    <sheet name="编码备注" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="171">
   <si>
     <t>声\韵</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +328,317 @@
   </si>
   <si>
     <t>py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver.ja</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver.kata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ア</t>
+  </si>
+  <si>
+    <t>イ</t>
+  </si>
+  <si>
+    <t>ウ</t>
+  </si>
+  <si>
+    <t>エ</t>
+  </si>
+  <si>
+    <t>オ</t>
+  </si>
+  <si>
+    <t>カ</t>
+  </si>
+  <si>
+    <t>ガ</t>
+  </si>
+  <si>
+    <t>キ</t>
+  </si>
+  <si>
+    <t>ギ</t>
+  </si>
+  <si>
+    <t>ク</t>
+  </si>
+  <si>
+    <t>グ</t>
+  </si>
+  <si>
+    <t>ケ</t>
+  </si>
+  <si>
+    <t>ゲ</t>
+  </si>
+  <si>
+    <t>コ</t>
+  </si>
+  <si>
+    <t>ゴ</t>
+  </si>
+  <si>
+    <t>サ</t>
+  </si>
+  <si>
+    <t>ザ</t>
+  </si>
+  <si>
+    <t>シ</t>
+  </si>
+  <si>
+    <t>ジ</t>
+  </si>
+  <si>
+    <t>ス</t>
+  </si>
+  <si>
+    <t>ズ</t>
+  </si>
+  <si>
+    <t>セ</t>
+  </si>
+  <si>
+    <t>ゼ</t>
+  </si>
+  <si>
+    <t>ソ</t>
+  </si>
+  <si>
+    <t>ゾ</t>
+  </si>
+  <si>
+    <t>タ</t>
+  </si>
+  <si>
+    <t>ダ</t>
+  </si>
+  <si>
+    <t>チ</t>
+  </si>
+  <si>
+    <t>ヂ</t>
+  </si>
+  <si>
+    <t>ッ</t>
+  </si>
+  <si>
+    <t>ツ</t>
+  </si>
+  <si>
+    <t>ヅ</t>
+  </si>
+  <si>
+    <t>テ</t>
+  </si>
+  <si>
+    <t>デ</t>
+  </si>
+  <si>
+    <t>ト</t>
+  </si>
+  <si>
+    <t>ド</t>
+  </si>
+  <si>
+    <t>ナ</t>
+  </si>
+  <si>
+    <t>ニ</t>
+  </si>
+  <si>
+    <t>ヌ</t>
+  </si>
+  <si>
+    <t>ネ</t>
+  </si>
+  <si>
+    <t>ノ</t>
+  </si>
+  <si>
+    <t>ハ</t>
+  </si>
+  <si>
+    <t>バ</t>
+  </si>
+  <si>
+    <t>パ</t>
+  </si>
+  <si>
+    <t>ヒ</t>
+  </si>
+  <si>
+    <t>ビ</t>
+  </si>
+  <si>
+    <t>ピ</t>
+  </si>
+  <si>
+    <t>フ</t>
+  </si>
+  <si>
+    <t>ブ</t>
+  </si>
+  <si>
+    <t>プ</t>
+  </si>
+  <si>
+    <t>ヘ</t>
+  </si>
+  <si>
+    <t>ベ</t>
+  </si>
+  <si>
+    <t>ペ</t>
+  </si>
+  <si>
+    <t>ホ</t>
+  </si>
+  <si>
+    <t>ボ</t>
+  </si>
+  <si>
+    <t>ポ</t>
+  </si>
+  <si>
+    <t>マ</t>
+  </si>
+  <si>
+    <t>ミ</t>
+  </si>
+  <si>
+    <t>ム</t>
+  </si>
+  <si>
+    <t>メ</t>
+  </si>
+  <si>
+    <t>モ</t>
+  </si>
+  <si>
+    <t>ヤ</t>
+  </si>
+  <si>
+    <t>ユ</t>
+  </si>
+  <si>
+    <t>ヨ</t>
+  </si>
+  <si>
+    <t>ラ</t>
+  </si>
+  <si>
+    <t>リ</t>
+  </si>
+  <si>
+    <t>ル</t>
+  </si>
+  <si>
+    <t>レ</t>
+  </si>
+  <si>
+    <t>ロ</t>
+  </si>
+  <si>
+    <t>ワ</t>
+  </si>
+  <si>
+    <t>ン</t>
+  </si>
+  <si>
+    <t>フィ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フェ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フォ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>キュ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>シュ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>デュ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ヒュ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ミュ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>リュ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊洛塔丝</t>
+  </si>
+  <si>
+    <t>Irotas</t>
+  </si>
+  <si>
+    <t>玛尔塔</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>菲奥拉</t>
+  </si>
+  <si>
+    <t>Fiola</t>
+  </si>
+  <si>
+    <t>艾琳达</t>
+  </si>
+  <si>
+    <t>Elinda</t>
+  </si>
+  <si>
+    <t>赛莲</t>
+  </si>
+  <si>
+    <t>Selen</t>
+  </si>
+  <si>
+    <t>イロタス</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>マルタ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>フィオラ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>エリンダ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>セレン</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -333,7 +646,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +660,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -369,9 +696,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -906,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95E0A07-B247-4D01-AEB5-058AE5B768D7}">
   <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1633,11 +1962,848 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1223A2-0A66-450D-86FA-AF01AD992E88}">
+  <dimension ref="A1:CB11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" t="s">
+        <v>93</v>
+      </c>
+      <c r="S10" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" t="s">
+        <v>95</v>
+      </c>
+      <c r="U10" t="s">
+        <v>96</v>
+      </c>
+      <c r="V10" t="s">
+        <v>97</v>
+      </c>
+      <c r="W10" t="s">
+        <v>98</v>
+      </c>
+      <c r="X10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>129</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>140</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>142</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BT10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BU10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BV10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BW10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BX10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BY10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BZ10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="CA10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="CB10" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>92</v>
+      </c>
+      <c r="R11" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" t="s">
+        <v>94</v>
+      </c>
+      <c r="T11" t="s">
+        <v>95</v>
+      </c>
+      <c r="U11" t="s">
+        <v>96</v>
+      </c>
+      <c r="V11" t="s">
+        <v>97</v>
+      </c>
+      <c r="W11" t="s">
+        <v>98</v>
+      </c>
+      <c r="X11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>129</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>140</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>141</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>142</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BV11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BW11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BX11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BY11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="CA11" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F299364-DBFD-47F1-BF45-D00E2979AC0C}">
+  <dimension ref="A2:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383E418D-7943-46FA-BC3F-8B27587AED1C}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
